--- a/backend/hardwareFile/DC_RACKS.xlsx
+++ b/backend/hardwareFile/DC_RACKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexander/Desktop/codeJS/vehi/backend/hardwareFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AF776AC-4234-5542-9B8C-CE7A7A2565AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC1842-E2BF-6D49-8AAB-1456BA6A6B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,16 +22,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
   <si>
-    <t>Version 3</t>
+    <t>Version 9</t>
   </si>
   <si>
     <t>Last Modified by Синченко Александр</t>
   </si>
   <si>
-    <t>15:10:00, 05.30.23</t>
-  </si>
-  <si>
-    <t>39 minutes ago</t>
+    <t>16:25:36, 05.30.23</t>
+  </si>
+  <si>
+    <t>4 minutes ago</t>
   </si>
   <si>
     <t>Стойки 15 кВт</t>
@@ -59,7 +59,7 @@
   </si>
   <si>
     <t>Стойка зарезервированна
-Копируем и вставляем при необходимости</t>
+Просто вписываем слово "Резерв" в нижнее поле</t>
   </si>
   <si>
     <t>Занято</t>
@@ -405,7 +405,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -429,20 +429,9 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -455,7 +444,9 @@
         <color rgb="FF000000"/>
       </left>
       <right/>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -464,7 +455,9 @@
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
@@ -634,7 +627,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -643,105 +636,105 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1059,119 +1052,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B6" sqref="B6:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="10" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="10" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="10" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="10" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="10" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="10" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="9" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="9" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="9" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="9" customWidth="1"/>
+    <col min="13" max="15" width="8.83203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
       <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="11"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="10"/>
       <c r="J1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="K1" s="7"/>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="5"/>
-      <c r="F2" s="13"/>
+      <c r="F2" s="12"/>
       <c r="G2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="13"/>
+      <c r="I2" s="12"/>
       <c r="J2" s="6" t="s">
         <v>6</v>
       </c>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3" s="14">
         <v>14</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14" t="s">
+      <c r="F3" s="12"/>
+      <c r="G3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H3" s="14">
         <v>16</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="14" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <f>COUNTBLANK(D7:E26)</f>
         <v>11</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="12"/>
+      <c r="G4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <f>COUNTBLANK(G7:H28)</f>
         <v>8</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="16" t="s">
+      <c r="I4" s="12"/>
+      <c r="J4" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="16">
         <f>COUNTBLANK(J7:K26)</f>
         <v>8</v>
       </c>
@@ -1181,27 +1175,27 @@
         <v>9</v>
       </c>
       <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="16" t="s">
+      <c r="C5" s="12"/>
+      <c r="D5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="17">
         <f>COUNTIF(D7:E26,"Резерв")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="13"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <f>COUNTIF(G7:H28,"Резерв")</f>
         <v>0</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="16" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="18">
+      <c r="K5" s="17">
         <f>COUNTIF(J7:K26,"Резерв")</f>
         <v>0</v>
       </c>
@@ -1213,27 +1207,27 @@
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="19">
         <f>E3-E4-E5</f>
         <v>3</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="12"/>
+      <c r="G6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="19">
         <f>H3-H4-H5</f>
         <v>8</v>
       </c>
-      <c r="I6" s="13"/>
-      <c r="J6" s="19" t="s">
+      <c r="I6" s="12"/>
+      <c r="J6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="19">
         <f>K3-K4-K5</f>
         <v>7</v>
       </c>
@@ -1241,40 +1235,40 @@
     <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="21" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="13"/>
-      <c r="J7" s="22" t="s">
+      <c r="I7" s="12"/>
+      <c r="J7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="23" t="s">
+      <c r="K7" s="22" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="13"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="13"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="12"/>
       <c r="J8" s="26" t="s">
         <v>21</v>
       </c>
@@ -1283,25 +1277,25 @@
     <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
-      <c r="C9" s="13"/>
+      <c r="C9" s="12"/>
       <c r="D9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="21" t="s">
+      <c r="E9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="13"/>
+      <c r="F9" s="12"/>
       <c r="G9" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="13"/>
+      <c r="I9" s="12"/>
       <c r="J9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="23" t="s">
+      <c r="K9" s="22" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1312,46 +1306,46 @@
       <c r="B10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13"/>
+      <c r="C10" s="12"/>
       <c r="D10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="13"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="12"/>
       <c r="G10" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="13"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="12"/>
       <c r="J10" s="31" t="s">
         <v>28</v>
       </c>
       <c r="K10" s="27"/>
     </row>
     <row r="11" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24"/>
-      <c r="B11" s="32" t="s">
+      <c r="A11" s="23"/>
+      <c r="B11" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E11" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="22" t="s">
+      <c r="F11" s="12"/>
+      <c r="G11" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="21" t="s">
+      <c r="H11" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="22" t="s">
+      <c r="I11" s="12"/>
+      <c r="J11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="22" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1359,48 +1353,48 @@
       <c r="A12" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="25"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="24"/>
       <c r="E12" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
       <c r="G12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="25"/>
-      <c r="I12" s="13"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="12"/>
       <c r="J12" s="26" t="s">
         <v>35</v>
       </c>
       <c r="K12" s="27"/>
     </row>
     <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="21" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="21" t="s">
+      <c r="E13" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="12"/>
+      <c r="G13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="22" t="s">
+      <c r="I13" s="12"/>
+      <c r="J13" s="21" t="s">
         <v>41</v>
       </c>
       <c r="K13" s="28" t="s">
@@ -1414,17 +1408,17 @@
       <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="13"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="12"/>
       <c r="G14" s="26" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="13"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="26" t="s">
         <v>46</v>
       </c>
@@ -1435,42 +1429,42 @@
     <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="13"/>
+      <c r="C15" s="12"/>
       <c r="D15" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="22" t="s">
+      <c r="F15" s="12"/>
+      <c r="G15" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="22" t="s">
+      <c r="I15" s="12"/>
+      <c r="J15" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="23" t="s">
+      <c r="K15" s="22" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="13"/>
+      <c r="C16" s="12"/>
       <c r="D16" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="25"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="12"/>
       <c r="G16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="13"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="12"/>
       <c r="J16" s="26" t="s">
         <v>46</v>
       </c>
@@ -1479,278 +1473,279 @@
     <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="21" t="s">
+      <c r="C17" s="12"/>
+      <c r="D17" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="36" t="s">
+      <c r="E17" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="36" t="s">
+      <c r="F17" s="12"/>
+      <c r="G17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="22" t="s">
+      <c r="I17" s="12"/>
+      <c r="J17" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="23" t="s">
+      <c r="K17" s="22" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="37" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="37" t="s">
+      <c r="F18" s="12"/>
+      <c r="G18" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="25"/>
-      <c r="I18" s="13"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="12"/>
       <c r="J18" s="26" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="27"/>
     </row>
     <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="21" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="21" t="s">
+      <c r="E19" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="13"/>
-      <c r="G19" s="21" t="s">
+      <c r="F19" s="12"/>
+      <c r="G19" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="21" t="s">
+      <c r="H19" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="13"/>
+      <c r="I19" s="12"/>
       <c r="J19" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="21" t="s">
+      <c r="K19" s="20" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="12"/>
       <c r="J20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="25"/>
+      <c r="K20" s="24"/>
     </row>
     <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
       <c r="D21" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="21" t="s">
+      <c r="F21" s="12"/>
+      <c r="G21" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="22" t="s">
+      <c r="I21" s="12"/>
+      <c r="J21" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K21" s="20" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
       <c r="D22" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="38" t="s">
+      <c r="E22" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="13"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="37" t="s">
+      <c r="F22" s="12"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="I22" s="13"/>
+      <c r="I22" s="12"/>
       <c r="J22" s="26" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="25"/>
+      <c r="K22" s="24"/>
     </row>
     <row r="23" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="21" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="33" t="s">
+      <c r="F23" s="12"/>
+      <c r="G23" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="13"/>
-      <c r="J23" s="33" t="s">
+      <c r="I23" s="12"/>
+      <c r="J23" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="36" t="s">
+      <c r="K23" s="35" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="38" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="38" t="s">
+      <c r="F24" s="12"/>
+      <c r="G24" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="38" t="s">
+      <c r="H24" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="38" t="s">
+      <c r="I24" s="12"/>
+      <c r="J24" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="37" t="s">
+      <c r="K24" s="36" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="33" t="s">
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="36" t="s">
+      <c r="E25" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="36" t="s">
+      <c r="F25" s="12"/>
+      <c r="G25" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I25" s="13"/>
-      <c r="J25" s="33" t="s">
+      <c r="I25" s="12"/>
+      <c r="J25" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="21" t="s">
+      <c r="K25" s="20" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="38" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="37" t="s">
+      <c r="F26" s="12"/>
+      <c r="G26" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I26" s="13"/>
-      <c r="J26" s="38" t="s">
+      <c r="I26" s="12"/>
+      <c r="J26" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="K26" s="25"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="33" t="s">
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="H27" s="33" t="s">
+      <c r="H27" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="12"/>
     </row>
     <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="38" t="s">
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12"/>
     </row>
     <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-    </row>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="d+xxgxuEdSNjzsYhExK0Gv1bIHjw6nQeMxBZYjLFDLbGdM/O5mbNUgyqIleVceYDiJEPPCDYIcZplz1Ofrxcdg==" saltValue="ClaNTUYWi7bEZB3gJ5/CdQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="8Y2ETSIxjR9go1BFfxWeBAO3khwNftAel9uIm36BYLckJEkPSF8b1iL0hhvxXmd9FQ3jBjaUc+bhycDYs+UTSQ==" saltValue="oa/e8alq6W6uwgiMId/yQQ==" spinCount="500" sheet="1" objects="1" scenarios="1" formatCells="0"/>
   <mergeCells count="11">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:A9"/>

--- a/backend/hardwareFile/DC_RACKS.xlsx
+++ b/backend/hardwareFile/DC_RACKS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexander/Desktop/codeJS/vehi/backend/hardwareFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEC1842-E2BF-6D49-8AAB-1456BA6A6B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BC6BD4-30FD-AB47-8B30-30B5EB43A5A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="89">
   <si>
     <t>Version 9</t>
   </si>
@@ -55,13 +55,6 @@
     <t>Резерв</t>
   </si>
   <si>
-    <t>Стойка Свободна</t>
-  </si>
-  <si>
-    <t>Стойка зарезервированна
-Просто вписываем слово "Резерв" в нижнее поле</t>
-  </si>
-  <si>
     <t>Занято</t>
   </si>
   <si>
@@ -129,9 +122,6 @@
   </si>
   <si>
     <t>КАФ</t>
-  </si>
-  <si>
-    <t>Client</t>
   </si>
   <si>
     <t>3.12</t>
@@ -156,143 +146,150 @@
 Не трогаем</t>
   </si>
   <si>
+    <t>Net Cell</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>K2</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>2.13</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.12</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K8</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.11</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>NLS</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>2.12</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>K13</t>
+  </si>
+  <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>2.11</t>
+  </si>
+  <si>
+    <t>K11</t>
+  </si>
+  <si>
+    <t>1.10</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>NIT</t>
+  </si>
+  <si>
+    <t>НЦЭ</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>2.10</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>K15</t>
+  </si>
+  <si>
+    <t>KAZ DREAM</t>
+  </si>
+  <si>
+    <t>VEHI</t>
+  </si>
+  <si>
+    <t>NetCell</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>K6</t>
+  </si>
+  <si>
+    <t>K9</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>2.9</t>
+  </si>
+  <si>
+    <t>Стойка Свободна, В случае если стойка была занята, вписав свободно, она автоматически раскрасится в зеленый и удалятся детали</t>
+  </si>
+  <si>
     <t>Стойка занята
-Копируем. вставляем и меняем наименование клиентапри необходимости</t>
-  </si>
-  <si>
-    <t>Net Cell</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>2.13</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>1.12</t>
-  </si>
-  <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>3.11</t>
-  </si>
-  <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K8</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.11</t>
-  </si>
-  <si>
-    <t>1.4</t>
-  </si>
-  <si>
-    <t>NLS</t>
-  </si>
-  <si>
-    <t>3.10</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>2.12</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>K13</t>
-  </si>
-  <si>
-    <t>1.3</t>
-  </si>
-  <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.11</t>
-  </si>
-  <si>
-    <t>K11</t>
-  </si>
-  <si>
-    <t>1.10</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
-    <t>NIT</t>
-  </si>
-  <si>
-    <t>НЦЭ</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>2.10</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>K15</t>
-  </si>
-  <si>
-    <t>KAZ DREAM</t>
-  </si>
-  <si>
-    <t>VEHI</t>
-  </si>
-  <si>
-    <t>NetCell</t>
-  </si>
-  <si>
-    <t>3.8</t>
-  </si>
-  <si>
-    <t>K6</t>
-  </si>
-  <si>
-    <t>K9</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>2.9</t>
+Вписываем слово "Занято", Нажимаем Save и вписываем детали</t>
+  </si>
+  <si>
+    <t>Стойка в резерве
+Просто вписываем слово "Резерв" во второе поле, нажимаем Save, вписываем детали. Цвет окрасится автоматически после перезагрузки Вводим по 1 клиенту за раз</t>
   </si>
 </sst>
 </file>
@@ -355,7 +352,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -404,6 +401,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -524,31 +527,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
@@ -557,60 +539,79 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
+      <bottom style="dashed">
+        <color theme="1" tint="0.34998626667073579"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color theme="2" tint="-0.249977111117893"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-0.249977111117893"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -622,119 +623,137 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="8" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="3" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="8" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1052,712 +1071,1129 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:B9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.5" style="9" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="9" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="9" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="9" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="18.6640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="20.5" style="9" customWidth="1"/>
-    <col min="12" max="12" width="21.33203125" style="9" customWidth="1"/>
-    <col min="13" max="15" width="8.83203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="20.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.33203125" style="3" customWidth="1"/>
+    <col min="13" max="15" width="8.83203125" style="3" customWidth="1"/>
+    <col min="16" max="16" width="9.1640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="7" t="s">
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="11" t="s">
+      <c r="K1" s="41"/>
+      <c r="L1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="6" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="43"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="43"/>
     </row>
     <row r="3" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="6">
         <v>14</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="6">
         <v>16</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="4"/>
+      <c r="J3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="6">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="16">
-        <f>COUNTBLANK(D7:E26)</f>
-        <v>11</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="16">
-        <f>COUNTBLANK(G7:H28)</f>
-        <v>8</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="16">
-        <f>COUNTBLANK(J7:K26)</f>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="8">
+        <f>COUNTIF(D7:E46,"Свободно")</f>
+        <v>11</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="8">
+        <f>COUNTIF(G7:H50,"Свободно")</f>
+        <v>8</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="8">
+        <f>COUNTIF(J7:K46,"Свободно")</f>
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="B5" s="44"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="17">
-        <f>COUNTIF(D7:E26,"Резерв")</f>
+      <c r="E5" s="9">
+        <f>COUNTIF(D7:E46,"Резерв")</f>
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="17">
-        <f>COUNTIF(G7:H28,"Резерв")</f>
+      <c r="H5" s="9">
+        <f>COUNTIF(G7:H50,"Резерв")</f>
         <v>0</v>
       </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="15" t="s">
+      <c r="I5" s="4"/>
+      <c r="J5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="17">
-        <f>COUNTIF(J7:K26,"Резерв")</f>
+      <c r="K5" s="9">
+        <f>COUNTIF(J7:K46,"Резерв")</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="19">
+      <c r="A6" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="12">
         <f>E3-E4-E5</f>
         <v>3</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="19">
+      <c r="F6" s="4"/>
+      <c r="G6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="12">
         <f>H3-H4-H5</f>
         <v>8</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="I6" s="4"/>
+      <c r="J6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="12">
         <f>K3-K4-K5</f>
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="20" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="38" t="s">
+      <c r="H7" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="21" t="s">
+      <c r="I7" s="4"/>
+      <c r="J7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="K7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="21" t="s">
+    </row>
+    <row r="8" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="35"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K8" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="18"/>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="22" t="s">
+      <c r="H10" s="19"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="26" t="s">
+      <c r="K10" s="21"/>
+    </row>
+    <row r="11" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="24"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="26" t="s">
+      <c r="E11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="27"/>
-    </row>
-    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="28" t="s">
+      <c r="F11" s="4"/>
+      <c r="G11" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="H11" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="28" t="s">
+      <c r="I11" s="4"/>
+      <c r="J11" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="20" t="s">
+      <c r="K11" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="28" t="s">
+    </row>
+    <row r="12" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="22" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="18"/>
+    </row>
+    <row r="14" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="21"/>
+    </row>
+    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="31" t="s">
+      <c r="E15" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="27"/>
-    </row>
-    <row r="11" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="20" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="H15" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F11" s="12"/>
-      <c r="G11" s="21" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="20" t="s">
+      <c r="K15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="21" t="s">
+    </row>
+    <row r="16" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="33"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="18"/>
+    </row>
+    <row r="18" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="19"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K11" s="22" t="s">
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="12"/>
-      <c r="G12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="26" t="s">
+      <c r="E19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="K12" s="27"/>
-    </row>
-    <row r="13" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="34" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="20" t="s">
+      <c r="H19" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="I19" s="4"/>
+      <c r="J19" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="21" t="s">
+      <c r="K19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="H13" s="28" t="s">
+    </row>
+    <row r="20" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="33"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K20" s="33"/>
+    </row>
+    <row r="21" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="22"/>
+    </row>
+    <row r="22" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="21" t="s">
+      <c r="B22" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K13" s="28" t="s">
+      <c r="H22" s="34"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="20" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="K22" s="34"/>
+    </row>
+    <row r="23" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="E23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="26" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="H14" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="26" t="s">
+      <c r="H23" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="K14" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="28" t="s">
+      <c r="I23" s="4"/>
+      <c r="J23" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="K23" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="21" t="s">
+    </row>
+    <row r="24" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K24" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="45"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="16"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="18"/>
+    </row>
+    <row r="26" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="45"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="19"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="21"/>
+    </row>
+    <row r="27" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="H15" s="20" t="s">
+      <c r="E27" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="21" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="K15" s="22" t="s">
+      <c r="H27" s="13" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="24"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="K16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="20" t="s">
+      <c r="I27" s="4"/>
+      <c r="J27" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="35" t="s">
+      <c r="K27" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="F17" s="12"/>
-      <c r="G17" s="35" t="s">
+    </row>
+    <row r="28" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="37"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="16"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="18"/>
+    </row>
+    <row r="30" spans="1:14" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I17" s="12"/>
-      <c r="J17" s="21" t="s">
+      <c r="E31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="22" t="s">
+      <c r="F31" s="4"/>
+      <c r="G31" s="13" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="24"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="26" t="s">
+      <c r="H31" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="K18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="20" t="s">
+      <c r="I31" s="4"/>
+      <c r="J31" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="K31" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="20" t="s">
+    </row>
+    <row r="32" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="I32" s="4"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="16"/>
+    </row>
+    <row r="34" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="19"/>
+    </row>
+    <row r="35" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H19" s="20" t="s">
+      <c r="E35" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="I19" s="12"/>
-      <c r="J19" s="28" t="s">
+      <c r="F35" s="4"/>
+      <c r="G35" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="K19" s="20" t="s">
+      <c r="H35" s="39" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="24"/>
-    </row>
-    <row r="21" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="28" t="s">
+      <c r="I35" s="4"/>
+      <c r="J35" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="32" t="s">
+      <c r="K35" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="20" t="s">
+    </row>
+    <row r="36" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="24"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="4"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="16"/>
+    </row>
+    <row r="38" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="F38" s="4"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="I21" s="12"/>
-      <c r="J21" s="21" t="s">
+      <c r="K38" s="19"/>
+    </row>
+    <row r="39" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="K21" s="20" t="s">
+      <c r="E39" s="23" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E22" s="37" t="s">
+      <c r="F39" s="4"/>
+      <c r="G39" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="I22" s="12"/>
-      <c r="J22" s="26" t="s">
+      <c r="H39" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="K22" s="24"/>
-    </row>
-    <row r="23" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="20" t="s">
+      <c r="I39" s="4"/>
+      <c r="J39" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="32" t="s">
+      <c r="K39" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="32" t="s">
+    </row>
+    <row r="40" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F40" s="4"/>
+      <c r="G40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I40" s="4"/>
+      <c r="J40" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="37"/>
+    </row>
+    <row r="41" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F42" s="4"/>
+      <c r="G42" s="25" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="32" t="s">
+      <c r="H42" s="25" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="12"/>
-      <c r="J23" s="32" t="s">
+      <c r="I42" s="4"/>
+      <c r="J42" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="K23" s="35" t="s">
+      <c r="K42" s="38"/>
+    </row>
+    <row r="43" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="23" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="37" t="s">
+      <c r="E43" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H24" s="37" t="s">
+      <c r="F43" s="4"/>
+      <c r="G43" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="12"/>
-      <c r="J24" s="37" t="s">
+      <c r="H43" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="K24" s="36" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="32" t="s">
+      <c r="I43" s="4"/>
+      <c r="J43" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="K43" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" s="37"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I44" s="4"/>
+      <c r="J44" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="K44" s="26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="4"/>
+      <c r="G45" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="H45" s="24"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="16"/>
+    </row>
+    <row r="46" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="38"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="35" t="s">
+      <c r="K46" s="19"/>
+    </row>
+    <row r="47" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="H25" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I25" s="12"/>
-      <c r="J25" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="K25" s="20" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="H26" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I26" s="12"/>
-      <c r="J26" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="K26" s="24"/>
-    </row>
-    <row r="27" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
-      <c r="G27" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="I27" s="12"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="12"/>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
-      <c r="G28" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H28" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" s="12"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="12"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
-      <c r="G29" s="12"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="12"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" x14ac:dyDescent="0.2"/>
+      <c r="H47" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+    </row>
+    <row r="48" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+    </row>
+    <row r="49" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+    </row>
+    <row r="50" spans="1:11" ht="37" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" ht="15" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="8Y2ETSIxjR9go1BFfxWeBAO3khwNftAel9uIm36BYLckJEkPSF8b1iL0hhvxXmd9FQ3jBjaUc+bhycDYs+UTSQ==" saltValue="oa/e8alq6W6uwgiMId/yQQ==" spinCount="500" sheet="1" objects="1" scenarios="1" formatCells="0"/>
-  <mergeCells count="11">
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="D1:H1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="gtqKyv5HjXyEeLraXGzhPKbnDMCcqdgwAYoSmSe9AHgKy//KHfS3gZWKnTkeHH43s9F0/b9XJyV2PLf68UQnRw==" saltValue="/sxnrW2KDuYj1gto6JkEwQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" formatCells="0"/>
+  <mergeCells count="43">
     <mergeCell ref="J1:K1"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="J2:K2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="J13:J14"/>
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="K41:K42"/>
+    <mergeCell ref="K39:K40"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="H37:H38"/>
+    <mergeCell ref="H35:H36"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="B6:B13"/>
+    <mergeCell ref="A6:A13"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter alignWithMargins="0"/>
